--- a/biology/Zoologie/Arctiini/Arctiini.xlsx
+++ b/biology/Zoologie/Arctiini/Arctiini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Arctiini sont une tribu de lépidoptères (papillons) de la famille des Erebidae et de la sous-famille des Arctiinae. 
 </t>
@@ -511,7 +523,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jusque dans les années 2000, le taxon actuellement appelé Arctiini n'était pas une tribu mais une sous-famille, appelée Arctiinae et classée dans l'ancienne famille des Arctiidae. 
 Une révision de la classification a alors conduit à rétrograder plusieurs taxons au rang taxonomique inférieur, et donc à modifier leurs suffixes. Les anciens Arctiidae sont devenus une sous-famille, reprenant le nom d'Arctiinae (et classée dans la nouvelle famille des Erebidae), tandis que l'ancienne sous-famille des Arctiinae est devenue l'actuelle tribu des Arctiini, et l'ancienne tribu des Arctiini est devenue l'actuelle sous-tribu des Arctiinae.
@@ -543,9 +557,11 @@
           <t>Sous-tribus</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>La classification interne des Arctiini n'est que partiellement élucidée. Dowdy et al. (2020) mentionnent huit sous-tribus[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La classification interne des Arctiini n'est que partiellement élucidée. Dowdy et al. (2020) mentionnent huit sous-tribus :
 Arctiinae
 Callimorphina
 Ctenuchina
@@ -581,7 +597,9 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Acantharctia Aurivillius, 1899
